--- a/Data/Employee_Dept.xlsx
+++ b/Data/Employee_Dept.xlsx
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1392,7 +1392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
